--- a/Daisy-xls/ResearchPages/Spanish/research-pancreatic - Spanish.xlsx
+++ b/Daisy-xls/ResearchPages/Spanish/research-pancreatic - Spanish.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="16608" windowHeight="9432"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="16605" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>URL</t>
   </si>
@@ -39,7 +39,10 @@
     <t>Instantánea del cáncer de páncreas</t>
   </si>
   <si>
-    <t>http://www.cancer.gov/espanol/cancer/instantaneas/pancreas</t>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/instantaneas/pancreas</t>
   </si>
 </sst>
 </file>
@@ -49,7 +52,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +75,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -116,7 +125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -125,26 +134,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -152,6 +146,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -455,61 +467,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="44.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="2" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="44.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="44.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14">
+        <v>725788</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="10">
+      <c r="E2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="13">
         <v>41948</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
   </sheetData>
-  <sortState ref="A2:E5">
-    <sortCondition descending="1" ref="E1"/>
+  <sortState ref="B2:F5">
+    <sortCondition descending="1" ref="F1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -522,7 +542,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -534,7 +554,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
